--- a/report.xlsx
+++ b/report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>Date Worksnaps</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>Rate:</t>
+  </si>
+  <si>
+    <t>Total:</t>
   </si>
 </sst>
 </file>
@@ -462,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:F29"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -727,14 +733,37 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <f>SUM(B2:B24)</f>
-        <v>7</v>
-      </c>
-      <c r="D25">
-        <f>SUM(D2:D24)</f>
-        <v>7</v>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <f>SUM(B2:B26)</f>
+      </c>
+      <c r="D27">
+        <f>SUM(D2:D26)</f>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <f>(B27*B28)</f>
+      </c>
+      <c r="D29">
+        <f>(D27*D28)</f>
+      </c>
+      <c r="F29">
+        <f>SUM(B29,D29)</f>
       </c>
     </row>
   </sheetData>
